--- a/natmiOut/OldD7/LR-pairs_lrc2p/Apoe-Vldlr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Apoe-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.7387598257833</v>
+        <v>29.32133366666666</v>
       </c>
       <c r="H2">
-        <v>25.7387598257833</v>
+        <v>87.964001</v>
       </c>
       <c r="I2">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="J2">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.446611867381846</v>
+        <v>0.463191</v>
       </c>
       <c r="N2">
-        <v>0.446611867381846</v>
+        <v>1.389573</v>
       </c>
       <c r="O2">
-        <v>0.03707988567574841</v>
+        <v>0.0353316468093919</v>
       </c>
       <c r="P2">
-        <v>0.03707988567574841</v>
+        <v>0.0353316468093919</v>
       </c>
       <c r="Q2">
-        <v>11.49523558988592</v>
+        <v>13.581377862397</v>
       </c>
       <c r="R2">
-        <v>11.49523558988592</v>
+        <v>122.232400761573</v>
       </c>
       <c r="S2">
-        <v>0.0002250812212005347</v>
+        <v>0.0002261903705856898</v>
       </c>
       <c r="T2">
-        <v>0.0002250812212005347</v>
+        <v>0.0002261903705856898</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.7387598257833</v>
+        <v>29.32133366666666</v>
       </c>
       <c r="H3">
-        <v>25.7387598257833</v>
+        <v>87.964001</v>
       </c>
       <c r="I3">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="J3">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.897926520279681</v>
+        <v>9.932929333333332</v>
       </c>
       <c r="N3">
-        <v>9.897926520279681</v>
+        <v>29.798788</v>
       </c>
       <c r="O3">
-        <v>0.8217739173624282</v>
+        <v>0.7576717833204485</v>
       </c>
       <c r="P3">
-        <v>0.8217739173624282</v>
+        <v>0.7576717833204486</v>
       </c>
       <c r="Q3">
-        <v>254.7603534787297</v>
+        <v>291.2467352700875</v>
       </c>
       <c r="R3">
-        <v>254.7603534787297</v>
+        <v>2621.220617430788</v>
       </c>
       <c r="S3">
-        <v>0.00498830763633279</v>
+        <v>0.004850554019633661</v>
       </c>
       <c r="T3">
-        <v>0.00498830763633279</v>
+        <v>0.004850554019633663</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.7387598257833</v>
+        <v>29.32133366666666</v>
       </c>
       <c r="H4">
-        <v>25.7387598257833</v>
+        <v>87.964001</v>
       </c>
       <c r="I4">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="J4">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.70004749071259</v>
+        <v>0.1285543333333333</v>
       </c>
       <c r="N4">
-        <v>1.70004749071259</v>
+        <v>0.385663</v>
       </c>
       <c r="O4">
-        <v>0.1411461969618234</v>
+        <v>0.009805968382697785</v>
       </c>
       <c r="P4">
-        <v>0.1411461969618234</v>
+        <v>0.009805968382697785</v>
       </c>
       <c r="Q4">
-        <v>43.75711405587692</v>
+        <v>3.769384501962555</v>
       </c>
       <c r="R4">
-        <v>43.75711405587692</v>
+        <v>33.92446051766299</v>
       </c>
       <c r="S4">
-        <v>0.0008567814544465204</v>
+        <v>6.277702351095544E-05</v>
       </c>
       <c r="T4">
-        <v>0.0008567814544465204</v>
+        <v>6.277702351095546E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>42.9566938861627</v>
+        <v>29.32133366666666</v>
       </c>
       <c r="H5">
-        <v>42.9566938861627</v>
+        <v>87.964001</v>
       </c>
       <c r="I5">
-        <v>0.01013080854297359</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="J5">
-        <v>0.01013080854297359</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.446611867381846</v>
+        <v>2.585130333333333</v>
       </c>
       <c r="N5">
-        <v>0.446611867381846</v>
+        <v>7.755391</v>
       </c>
       <c r="O5">
-        <v>0.03707988567574841</v>
+        <v>0.1971906014874617</v>
       </c>
       <c r="P5">
-        <v>0.03707988567574841</v>
+        <v>0.1971906014874618</v>
       </c>
       <c r="Q5">
-        <v>19.18496927304945</v>
+        <v>75.79946907548788</v>
       </c>
       <c r="R5">
-        <v>19.18496927304945</v>
+        <v>682.195221679391</v>
       </c>
       <c r="S5">
-        <v>0.0003756492225763561</v>
+        <v>0.00126239842334798</v>
       </c>
       <c r="T5">
-        <v>0.0003756492225763561</v>
+        <v>0.001262398423347981</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.9566938861627</v>
+        <v>45.524413</v>
       </c>
       <c r="H6">
-        <v>42.9566938861627</v>
+        <v>136.573239</v>
       </c>
       <c r="I6">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300594</v>
       </c>
       <c r="J6">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300592</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.897926520279681</v>
+        <v>0.463191</v>
       </c>
       <c r="N6">
-        <v>9.897926520279681</v>
+        <v>1.389573</v>
       </c>
       <c r="O6">
-        <v>0.8217739173624282</v>
+        <v>0.0353316468093919</v>
       </c>
       <c r="P6">
-        <v>0.8217739173624282</v>
+        <v>0.0353316468093919</v>
       </c>
       <c r="Q6">
-        <v>425.1821996393858</v>
+        <v>21.086498381883</v>
       </c>
       <c r="R6">
-        <v>425.1821996393858</v>
+        <v>189.778485436947</v>
       </c>
       <c r="S6">
-        <v>0.008325234222408162</v>
+        <v>0.000351184020625642</v>
       </c>
       <c r="T6">
-        <v>0.008325234222408162</v>
+        <v>0.0003511840206256419</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.9566938861627</v>
+        <v>45.524413</v>
       </c>
       <c r="H7">
-        <v>42.9566938861627</v>
+        <v>136.573239</v>
       </c>
       <c r="I7">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300594</v>
       </c>
       <c r="J7">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300592</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.70004749071259</v>
+        <v>9.932929333333332</v>
       </c>
       <c r="N7">
-        <v>1.70004749071259</v>
+        <v>29.798788</v>
       </c>
       <c r="O7">
-        <v>0.1411461969618234</v>
+        <v>0.7576717833204485</v>
       </c>
       <c r="P7">
-        <v>0.1411461969618234</v>
+        <v>0.7576717833204486</v>
       </c>
       <c r="Q7">
-        <v>73.02841965047975</v>
+        <v>452.1907772704813</v>
       </c>
       <c r="R7">
-        <v>73.02841965047975</v>
+        <v>4069.716995434332</v>
       </c>
       <c r="S7">
-        <v>0.001429925097989074</v>
+        <v>0.007530988425661071</v>
       </c>
       <c r="T7">
-        <v>0.001429925097989074</v>
+        <v>0.007530988425661071</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4143.12765351171</v>
+        <v>45.524413</v>
       </c>
       <c r="H8">
-        <v>4143.12765351171</v>
+        <v>136.573239</v>
       </c>
       <c r="I8">
-        <v>0.9771057600023327</v>
+        <v>0.009939644832300594</v>
       </c>
       <c r="J8">
-        <v>0.9771057600023327</v>
+        <v>0.009939644832300592</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.446611867381846</v>
+        <v>0.1285543333333333</v>
       </c>
       <c r="N8">
-        <v>0.446611867381846</v>
+        <v>0.385663</v>
       </c>
       <c r="O8">
-        <v>0.03707988567574841</v>
+        <v>0.009805968382697785</v>
       </c>
       <c r="P8">
-        <v>0.03707988567574841</v>
+        <v>0.009805968382697785</v>
       </c>
       <c r="Q8">
-        <v>1850.369978136231</v>
+        <v>5.852360563606333</v>
       </c>
       <c r="R8">
-        <v>1850.369978136231</v>
+        <v>52.671245072457</v>
       </c>
       <c r="S8">
-        <v>0.03623096987400176</v>
+        <v>9.746784296078506E-05</v>
       </c>
       <c r="T8">
-        <v>0.03623096987400176</v>
+        <v>9.746784296078503E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4143.12765351171</v>
+        <v>45.524413</v>
       </c>
       <c r="H9">
-        <v>4143.12765351171</v>
+        <v>136.573239</v>
       </c>
       <c r="I9">
-        <v>0.9771057600023327</v>
+        <v>0.009939644832300594</v>
       </c>
       <c r="J9">
-        <v>0.9771057600023327</v>
+        <v>0.009939644832300592</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.897926520279681</v>
+        <v>2.585130333333333</v>
       </c>
       <c r="N9">
-        <v>9.897926520279681</v>
+        <v>7.755391</v>
       </c>
       <c r="O9">
-        <v>0.8217739173624282</v>
+        <v>0.1971906014874617</v>
       </c>
       <c r="P9">
-        <v>0.8217739173624282</v>
+        <v>0.1971906014874618</v>
       </c>
       <c r="Q9">
-        <v>41008.37307859768</v>
+        <v>117.6865409534943</v>
       </c>
       <c r="R9">
-        <v>41008.37307859768</v>
+        <v>1059.178868581449</v>
       </c>
       <c r="S9">
-        <v>0.8029600280745096</v>
+        <v>0.001960004543053095</v>
       </c>
       <c r="T9">
-        <v>0.8029600280745096</v>
+        <v>0.001960004543053095</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4143.12765351171</v>
+        <v>4438.215250666667</v>
       </c>
       <c r="H10">
-        <v>4143.12765351171</v>
+        <v>13314.645752</v>
       </c>
       <c r="I10">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915309</v>
       </c>
       <c r="J10">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915307</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.70004749071259</v>
+        <v>0.463191</v>
       </c>
       <c r="N10">
-        <v>1.70004749071259</v>
+        <v>1.389573</v>
       </c>
       <c r="O10">
-        <v>0.1411461969618234</v>
+        <v>0.0353316468093919</v>
       </c>
       <c r="P10">
-        <v>0.1411461969618234</v>
+        <v>0.0353316468093919</v>
       </c>
       <c r="Q10">
-        <v>7043.513771054524</v>
+        <v>2055.741360171544</v>
       </c>
       <c r="R10">
-        <v>7043.513771054524</v>
+        <v>18501.6722415439</v>
       </c>
       <c r="S10">
-        <v>0.1379147620538214</v>
+        <v>0.0342372404918469</v>
       </c>
       <c r="T10">
-        <v>0.1379147620538214</v>
+        <v>0.0342372404918469</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.3807919958291</v>
+        <v>4438.215250666667</v>
       </c>
       <c r="H11">
-        <v>28.3807919958291</v>
+        <v>13314.645752</v>
       </c>
       <c r="I11">
-        <v>0.006693261142713747</v>
+        <v>0.9690247577915309</v>
       </c>
       <c r="J11">
-        <v>0.006693261142713747</v>
+        <v>0.9690247577915307</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.446611867381846</v>
+        <v>9.932929333333332</v>
       </c>
       <c r="N11">
-        <v>0.446611867381846</v>
+        <v>29.798788</v>
       </c>
       <c r="O11">
-        <v>0.03707988567574841</v>
+        <v>0.7576717833204485</v>
       </c>
       <c r="P11">
-        <v>0.03707988567574841</v>
+        <v>0.7576717833204486</v>
       </c>
       <c r="Q11">
-        <v>12.67519851103298</v>
+        <v>44084.47845099428</v>
       </c>
       <c r="R11">
-        <v>12.67519851103298</v>
+        <v>396760.3060589486</v>
       </c>
       <c r="S11">
-        <v>0.0002481853579697549</v>
+        <v>0.7342027163175748</v>
       </c>
       <c r="T11">
-        <v>0.0002481853579697549</v>
+        <v>0.7342027163175748</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.3807919958291</v>
+        <v>4438.215250666667</v>
       </c>
       <c r="H12">
-        <v>28.3807919958291</v>
+        <v>13314.645752</v>
       </c>
       <c r="I12">
-        <v>0.006693261142713747</v>
+        <v>0.9690247577915309</v>
       </c>
       <c r="J12">
-        <v>0.006693261142713747</v>
+        <v>0.9690247577915307</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>9.897926520279681</v>
+        <v>0.1285543333333333</v>
       </c>
       <c r="N12">
-        <v>9.897926520279681</v>
+        <v>0.385663</v>
       </c>
       <c r="O12">
-        <v>0.8217739173624282</v>
+        <v>0.009805968382697785</v>
       </c>
       <c r="P12">
-        <v>0.8217739173624282</v>
+        <v>0.009805968382697785</v>
       </c>
       <c r="Q12">
-        <v>280.9109937620581</v>
+        <v>570.5518027392862</v>
       </c>
       <c r="R12">
-        <v>280.9109937620581</v>
+        <v>5134.966224653575</v>
       </c>
       <c r="S12">
-        <v>0.005500347429177599</v>
+        <v>0.00950222613695513</v>
       </c>
       <c r="T12">
-        <v>0.005500347429177599</v>
+        <v>0.00950222613695513</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>28.3807919958291</v>
+        <v>4438.215250666667</v>
       </c>
       <c r="H13">
-        <v>28.3807919958291</v>
+        <v>13314.645752</v>
       </c>
       <c r="I13">
-        <v>0.006693261142713747</v>
+        <v>0.9690247577915309</v>
       </c>
       <c r="J13">
-        <v>0.006693261142713747</v>
+        <v>0.9690247577915307</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.70004749071259</v>
+        <v>2.585130333333333</v>
       </c>
       <c r="N13">
-        <v>1.70004749071259</v>
+        <v>7.755391</v>
       </c>
       <c r="O13">
-        <v>0.1411461969618234</v>
+        <v>0.1971906014874617</v>
       </c>
       <c r="P13">
-        <v>0.1411461969618234</v>
+        <v>0.1971906014874618</v>
       </c>
       <c r="Q13">
-        <v>48.24869421694522</v>
+        <v>11473.36487036101</v>
       </c>
       <c r="R13">
-        <v>48.24869421694522</v>
+        <v>103260.283833249</v>
       </c>
       <c r="S13">
-        <v>0.0009447283555663939</v>
+        <v>0.1910825748451539</v>
       </c>
       <c r="T13">
-        <v>0.0009447283555663939</v>
+        <v>0.1910825748451539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>67.02347933333333</v>
+      </c>
+      <c r="H14">
+        <v>201.070438</v>
+      </c>
+      <c r="I14">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="J14">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.463191</v>
+      </c>
+      <c r="N14">
+        <v>1.389573</v>
+      </c>
+      <c r="O14">
+        <v>0.0353316468093919</v>
+      </c>
+      <c r="P14">
+        <v>0.0353316468093919</v>
+      </c>
+      <c r="Q14">
+        <v>31.04467241588599</v>
+      </c>
+      <c r="R14">
+        <v>279.402051742974</v>
+      </c>
+      <c r="S14">
+        <v>0.0005170319263336711</v>
+      </c>
+      <c r="T14">
+        <v>0.0005170319263336712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>67.02347933333333</v>
+      </c>
+      <c r="H15">
+        <v>201.070438</v>
+      </c>
+      <c r="I15">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="J15">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.932929333333332</v>
+      </c>
+      <c r="N15">
+        <v>29.798788</v>
+      </c>
+      <c r="O15">
+        <v>0.7576717833204485</v>
+      </c>
+      <c r="P15">
+        <v>0.7576717833204486</v>
+      </c>
+      <c r="Q15">
+        <v>665.7394838921269</v>
+      </c>
+      <c r="R15">
+        <v>5991.655355029144</v>
+      </c>
+      <c r="S15">
+        <v>0.01108752455757897</v>
+      </c>
+      <c r="T15">
+        <v>0.01108752455757897</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>67.02347933333333</v>
+      </c>
+      <c r="H16">
+        <v>201.070438</v>
+      </c>
+      <c r="I16">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="J16">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1285543333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.385663</v>
+      </c>
+      <c r="O16">
+        <v>0.009805968382697785</v>
+      </c>
+      <c r="P16">
+        <v>0.009805968382697785</v>
+      </c>
+      <c r="Q16">
+        <v>8.61615870337711</v>
+      </c>
+      <c r="R16">
+        <v>77.54542833039399</v>
+      </c>
+      <c r="S16">
+        <v>0.0001434973792709146</v>
+      </c>
+      <c r="T16">
+        <v>0.0001434973792709146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>67.02347933333333</v>
+      </c>
+      <c r="H17">
+        <v>201.070438</v>
+      </c>
+      <c r="I17">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="J17">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.585130333333333</v>
+      </c>
+      <c r="N17">
+        <v>7.755391</v>
+      </c>
+      <c r="O17">
+        <v>0.1971906014874617</v>
+      </c>
+      <c r="P17">
+        <v>0.1971906014874618</v>
+      </c>
+      <c r="Q17">
+        <v>173.2644294701398</v>
+      </c>
+      <c r="R17">
+        <v>1559.379865231258</v>
+      </c>
+      <c r="S17">
+        <v>0.002885623675906782</v>
+      </c>
+      <c r="T17">
+        <v>0.002885623675906783</v>
       </c>
     </row>
   </sheetData>
